--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12840" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12840" uniqueCount="1195">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -756,7 +756,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
 </t>
   </si>
   <si>
@@ -1159,10 +1159,6 @@
     <t>Patient.identifier:idCardNumber.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore)
-</t>
-  </si>
-  <si>
     <t>簽發identifier的機構（可以只是文字表述）</t>
   </si>
   <si>
@@ -1500,6 +1496,10 @@
   </si>
   <si>
     <t>Patient.identifier:member.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2204,12 +2204,6 @@
   </si>
   <si>
     <t>住民的現居地址</t>
-  </si>
-  <si>
-    <t>使用郵政規範表達的地址（相對於GPS或其他位置定義格式）。這種data type可用於傳達投遞郵件的位址，以及用於訪問可能對郵件投遞無效的位置，這世界定義了各種郵政地址格式。</t>
-  </si>
-  <si>
-    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>Patient.address:home.id</t>
@@ -3386,6 +3380,9 @@
   </si>
   <si>
     <t>聯絡人的地址</t>
+  </si>
+  <si>
+    <t>注意：地址的目的是描述用於管理目的之郵政地址，而不是描述絕對的地理座標。郵政地址經常被用作實體位置的代表（亦可見[Location](http://hl7.org/fhir/R4/location.html#)resource）。</t>
   </si>
   <si>
     <t>需要紀錄用以聯絡聯絡人的郵件地址或到訪地址</t>
@@ -4032,17 +4029,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="92.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="231.328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4051,27 +4048,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="25.8515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9486,16 +9483,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -9577,13 +9574,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>20</v>
@@ -9608,10 +9605,10 @@
         <v>170</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -9696,7 +9693,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>179</v>
@@ -9811,7 +9808,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>185</v>
@@ -9928,7 +9925,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>190</v>
@@ -10047,7 +10044,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>200</v>
@@ -10166,7 +10163,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>268</v>
@@ -10281,7 +10278,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>270</v>
@@ -10398,7 +10395,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>272</v>
@@ -10517,7 +10514,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>282</v>
@@ -10632,7 +10629,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>284</v>
@@ -10749,7 +10746,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>286</v>
@@ -10868,7 +10865,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>296</v>
@@ -10985,7 +10982,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>304</v>
@@ -11031,7 +11028,7 @@
         <v>20</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>20</v>
@@ -11102,7 +11099,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>328</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>336</v>
@@ -11338,7 +11335,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>346</v>
@@ -11457,7 +11454,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>212</v>
@@ -11486,7 +11483,7 @@
         <v>102</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>356</v>
@@ -11505,7 +11502,7 @@
         <v>20</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>217</v>
@@ -11576,7 +11573,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -11605,7 +11602,7 @@
         <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>362</v>
@@ -11693,7 +11690,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>229</v>
@@ -11808,7 +11805,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>236</v>
@@ -11834,16 +11831,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -11925,13 +11922,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>20</v>
@@ -11956,10 +11953,10 @@
         <v>170</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -12044,7 +12041,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>179</v>
@@ -12159,7 +12156,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>185</v>
@@ -12276,7 +12273,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>190</v>
@@ -12395,7 +12392,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>200</v>
@@ -12514,7 +12511,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>268</v>
@@ -12629,7 +12626,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>270</v>
@@ -12746,7 +12743,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>272</v>
@@ -12865,7 +12862,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>282</v>
@@ -12980,7 +12977,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>284</v>
@@ -13097,7 +13094,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>286</v>
@@ -13216,7 +13213,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>296</v>
@@ -13333,7 +13330,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>304</v>
@@ -13379,7 +13376,7 @@
         <v>20</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>20</v>
@@ -13450,7 +13447,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>328</v>
@@ -13567,7 +13564,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>336</v>
@@ -13686,7 +13683,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>346</v>
@@ -13805,7 +13802,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>212</v>
@@ -13834,7 +13831,7 @@
         <v>102</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>356</v>
@@ -13853,7 +13850,7 @@
         <v>20</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>217</v>
@@ -13924,7 +13921,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>221</v>
@@ -13953,7 +13950,7 @@
         <v>180</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>362</v>
@@ -14041,7 +14038,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>229</v>
@@ -14156,7 +14153,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>236</v>
@@ -14182,16 +14179,16 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -14273,13 +14270,13 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>20</v>
@@ -14304,10 +14301,10 @@
         <v>170</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -14392,7 +14389,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>179</v>
@@ -14507,7 +14504,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>185</v>
@@ -14624,7 +14621,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>190</v>
@@ -14743,7 +14740,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>200</v>
@@ -14862,7 +14859,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>268</v>
@@ -14977,7 +14974,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>270</v>
@@ -15094,7 +15091,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>272</v>
@@ -15213,7 +15210,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>282</v>
@@ -15328,7 +15325,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>284</v>
@@ -15445,7 +15442,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>286</v>
@@ -15564,7 +15561,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>296</v>
@@ -15681,7 +15678,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>304</v>
@@ -15727,7 +15724,7 @@
         <v>20</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>20</v>
@@ -15798,7 +15795,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>328</v>
@@ -15915,7 +15912,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>336</v>
@@ -16034,7 +16031,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>346</v>
@@ -16153,7 +16150,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>212</v>
@@ -16182,7 +16179,7 @@
         <v>102</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>356</v>
@@ -16272,7 +16269,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>221</v>
@@ -16301,7 +16298,7 @@
         <v>180</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>362</v>
@@ -16389,7 +16386,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>229</v>
@@ -16504,7 +16501,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>236</v>
@@ -16530,16 +16527,16 @@
         <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -16621,13 +16618,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>169</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>20</v>
@@ -16652,7 +16649,7 @@
         <v>170</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>172</v>
@@ -16740,7 +16737,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>179</v>
@@ -16855,7 +16852,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>185</v>
@@ -16972,7 +16969,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>190</v>
@@ -17091,7 +17088,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>200</v>
@@ -17120,13 +17117,13 @@
         <v>259</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>205</v>
@@ -17210,7 +17207,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>268</v>
@@ -17325,7 +17322,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>270</v>
@@ -17442,7 +17439,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>272</v>
@@ -17477,7 +17474,7 @@
         <v>275</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>277</v>
@@ -17561,7 +17558,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>282</v>
@@ -17676,7 +17673,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>284</v>
@@ -17793,7 +17790,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>286</v>
@@ -17912,7 +17909,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>296</v>
@@ -18029,7 +18026,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>304</v>
@@ -18075,7 +18072,7 @@
         <v>20</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>20</v>
@@ -18146,7 +18143,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>328</v>
@@ -18263,7 +18260,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>336</v>
@@ -18382,7 +18379,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>346</v>
@@ -18501,7 +18498,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>212</v>
@@ -18530,7 +18527,7 @@
         <v>102</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>214</v>
@@ -18620,7 +18617,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>221</v>
@@ -18649,7 +18646,7 @@
         <v>180</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>223</v>
@@ -18737,7 +18734,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>229</v>
@@ -18852,7 +18849,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>236</v>
@@ -18878,7 +18875,7 @@
         <v>89</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>237</v>
+        <v>480</v>
       </c>
       <c r="L127" t="s" s="2">
         <v>238</v>
@@ -25341,10 +25338,10 @@
         <v>709</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>702</v>
@@ -25428,10 +25425,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25457,10 +25454,10 @@
         <v>180</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -25543,10 +25540,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25660,13 +25657,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B185" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C185" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>20</v>
@@ -25688,13 +25685,13 @@
         <v>20</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -25777,13 +25774,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>20</v>
@@ -25805,13 +25802,13 @@
         <v>20</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25894,13 +25891,13 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>20</v>
@@ -25922,13 +25919,13 @@
         <v>20</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -26011,13 +26008,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>20</v>
@@ -26039,13 +26036,13 @@
         <v>20</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -26128,16 +26125,16 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="D189" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="D189" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -26156,13 +26153,13 @@
         <v>20</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -26245,13 +26242,13 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>20</v>
@@ -26273,13 +26270,13 @@
         <v>20</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -26362,13 +26359,13 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>20</v>
@@ -26390,13 +26387,13 @@
         <v>20</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -26479,16 +26476,16 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="D192" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
@@ -26507,13 +26504,13 @@
         <v>20</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26596,10 +26593,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26625,16 +26622,16 @@
         <v>108</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="O193" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>20</v>
@@ -26662,28 +26659,28 @@
         <v>195</v>
       </c>
       <c r="Y193" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF193" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>79</v>
@@ -26707,7 +26704,7 @@
         <v>20</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AO193" t="s" s="2">
         <v>20</v>
@@ -26715,10 +26712,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26744,13 +26741,13 @@
         <v>108</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -26764,7 +26761,7 @@
         <v>20</v>
       </c>
       <c r="T194" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U194" t="s" s="2">
         <v>20</v>
@@ -26779,28 +26776,28 @@
         <v>195</v>
       </c>
       <c r="Y194" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF194" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -26824,7 +26821,7 @@
         <v>20</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>20</v>
@@ -26832,10 +26829,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26861,13 +26858,13 @@
         <v>180</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>522</v>
@@ -26883,7 +26880,7 @@
         <v>20</v>
       </c>
       <c r="T195" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U195" t="s" s="2">
         <v>20</v>
@@ -26919,7 +26916,7 @@
         <v>20</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -26943,7 +26940,7 @@
         <v>20</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>20</v>
@@ -26951,14 +26948,14 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -26980,10 +26977,10 @@
         <v>180</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -26998,7 +26995,7 @@
         <v>20</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>20</v>
@@ -27034,7 +27031,7 @@
         <v>20</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -27049,7 +27046,7 @@
         <v>100</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>20</v>
@@ -27058,7 +27055,7 @@
         <v>20</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>20</v>
@@ -27066,14 +27063,14 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
@@ -27095,10 +27092,10 @@
         <v>180</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -27113,7 +27110,7 @@
         <v>20</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>20</v>
@@ -27149,7 +27146,7 @@
         <v>20</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>79</v>
@@ -27164,7 +27161,7 @@
         <v>100</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>20</v>
@@ -27173,7 +27170,7 @@
         <v>20</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>20</v>
@@ -27181,14 +27178,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -27210,13 +27207,13 @@
         <v>180</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
@@ -27230,7 +27227,7 @@
         <v>20</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>20</v>
@@ -27266,7 +27263,7 @@
         <v>20</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -27281,7 +27278,7 @@
         <v>100</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>20</v>
@@ -27290,7 +27287,7 @@
         <v>20</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>20</v>
@@ -27298,14 +27295,14 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -27327,10 +27324,10 @@
         <v>180</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -27381,7 +27378,7 @@
         <v>20</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -27396,7 +27393,7 @@
         <v>100</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>20</v>
@@ -27405,7 +27402,7 @@
         <v>20</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>20</v>
@@ -27413,14 +27410,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27442,10 +27439,10 @@
         <v>180</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27460,7 +27457,7 @@
         <v>20</v>
       </c>
       <c r="T200" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U200" t="s" s="2">
         <v>20</v>
@@ -27496,7 +27493,7 @@
         <v>20</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -27511,7 +27508,7 @@
         <v>100</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>20</v>
@@ -27520,7 +27517,7 @@
         <v>20</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>20</v>
@@ -27528,10 +27525,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27557,10 +27554,10 @@
         <v>180</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27643,10 +27640,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27672,10 +27669,10 @@
         <v>135</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27756,13 +27753,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>20</v>
@@ -27784,13 +27781,13 @@
         <v>20</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27873,10 +27870,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27902,10 +27899,10 @@
         <v>180</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -27988,10 +27985,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -28103,10 +28100,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28132,13 +28129,13 @@
         <v>102</v>
       </c>
       <c r="L206" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>851</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -28146,7 +28143,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>20</v>
@@ -28188,7 +28185,7 @@
         <v>20</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>88</v>
@@ -28220,10 +28217,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28249,13 +28246,13 @@
         <v>201</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N207" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -28305,7 +28302,7 @@
         <v>20</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -28337,10 +28334,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28366,10 +28363,10 @@
         <v>180</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -28452,10 +28449,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28484,10 +28481,10 @@
         <v>136</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28569,10 +28566,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28595,19 +28592,19 @@
         <v>20</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N210" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>20</v>
@@ -28644,7 +28641,7 @@
         <v>20</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AC210" s="2"/>
       <c r="AD210" t="s" s="2">
@@ -28669,7 +28666,7 @@
         <v>100</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>20</v>
@@ -28678,7 +28675,7 @@
         <v>20</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>20</v>
@@ -28686,13 +28683,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>20</v>
@@ -28714,19 +28711,19 @@
         <v>20</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N211" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>20</v>
@@ -28754,10 +28751,10 @@
         <v>195</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>20</v>
@@ -28790,7 +28787,7 @@
         <v>100</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>20</v>
@@ -28799,7 +28796,7 @@
         <v>20</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>20</v>
@@ -28807,10 +28804,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28836,10 +28833,10 @@
         <v>180</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28922,10 +28919,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28951,13 +28948,13 @@
         <v>135</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -29039,10 +29036,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29068,16 +29065,16 @@
         <v>102</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M214" t="s" s="2">
+      <c r="O214" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>20</v>
@@ -29087,7 +29084,7 @@
         <v>20</v>
       </c>
       <c r="S214" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="T214" t="s" s="2">
         <v>20</v>
@@ -29158,10 +29155,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29187,13 +29184,13 @@
         <v>180</v>
       </c>
       <c r="L215" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N215" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -29275,10 +29272,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29304,14 +29301,14 @@
         <v>108</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>20</v>
@@ -29392,10 +29389,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29421,14 +29418,14 @@
         <v>180</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>20</v>
@@ -29509,10 +29506,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29538,16 +29535,16 @@
         <v>337</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="O218" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>20</v>
@@ -29628,13 +29625,13 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D219" t="s" s="2">
         <v>20</v>
@@ -29656,19 +29653,19 @@
         <v>20</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N219" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>20</v>
@@ -29696,10 +29693,10 @@
         <v>195</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>20</v>
@@ -29732,7 +29729,7 @@
         <v>100</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>20</v>
@@ -29741,7 +29738,7 @@
         <v>20</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>20</v>
@@ -29749,10 +29746,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29778,10 +29775,10 @@
         <v>180</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29864,10 +29861,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29893,13 +29890,13 @@
         <v>135</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -29981,10 +29978,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -30010,16 +30007,16 @@
         <v>102</v>
       </c>
       <c r="L222" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M222" t="s" s="2">
+      <c r="O222" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>20</v>
@@ -30029,7 +30026,7 @@
         <v>20</v>
       </c>
       <c r="S222" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>20</v>
@@ -30100,10 +30097,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -30129,13 +30126,13 @@
         <v>180</v>
       </c>
       <c r="L223" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
@@ -30217,10 +30214,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30246,14 +30243,14 @@
         <v>108</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>20</v>
@@ -30334,10 +30331,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30363,14 +30360,14 @@
         <v>180</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>20</v>
@@ -30451,10 +30448,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30480,16 +30477,16 @@
         <v>337</v>
       </c>
       <c r="L226" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="O226" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>20</v>
@@ -30570,13 +30567,13 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D227" t="s" s="2">
         <v>20</v>
@@ -30598,19 +30595,19 @@
         <v>20</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M227" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N227" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>20</v>
@@ -30638,10 +30635,10 @@
         <v>195</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z227" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AA227" t="s" s="2">
         <v>20</v>
@@ -30674,7 +30671,7 @@
         <v>100</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>20</v>
@@ -30683,7 +30680,7 @@
         <v>20</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>20</v>
@@ -30691,10 +30688,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30720,10 +30717,10 @@
         <v>180</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -30806,10 +30803,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30835,13 +30832,13 @@
         <v>135</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
@@ -30923,10 +30920,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30952,16 +30949,16 @@
         <v>102</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N230" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="O230" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O230" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>20</v>
@@ -30971,7 +30968,7 @@
         <v>20</v>
       </c>
       <c r="S230" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>20</v>
@@ -31042,10 +31039,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31071,13 +31068,13 @@
         <v>180</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -31159,10 +31156,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31188,14 +31185,14 @@
         <v>108</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>20</v>
@@ -31276,10 +31273,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31305,14 +31302,14 @@
         <v>180</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>20</v>
@@ -31393,10 +31390,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31422,16 +31419,16 @@
         <v>337</v>
       </c>
       <c r="L234" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="O234" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>20</v>
@@ -31512,10 +31509,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31541,16 +31538,16 @@
         <v>180</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>20</v>
@@ -31631,10 +31628,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31660,10 +31657,10 @@
         <v>180</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -31687,7 +31684,7 @@
         <v>20</v>
       </c>
       <c r="W236" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="X236" t="s" s="2">
         <v>20</v>
@@ -31746,10 +31743,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31775,13 +31772,13 @@
         <v>180</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
@@ -31831,7 +31828,7 @@
         <v>20</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>79</v>
@@ -31846,7 +31843,7 @@
         <v>100</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AL237" t="s" s="2">
         <v>20</v>
@@ -31855,7 +31852,7 @@
         <v>20</v>
       </c>
       <c r="AN237" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AO237" t="s" s="2">
         <v>20</v>
@@ -31863,10 +31860,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31892,14 +31889,14 @@
         <v>230</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>20</v>
@@ -31912,7 +31909,7 @@
         <v>20</v>
       </c>
       <c r="T238" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="U238" t="s" s="2">
         <v>20</v>
@@ -31948,7 +31945,7 @@
         <v>20</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>79</v>
@@ -31972,7 +31969,7 @@
         <v>20</v>
       </c>
       <c r="AN238" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AO238" t="s" s="2">
         <v>20</v>
@@ -31980,13 +31977,13 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>697</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D239" t="s" s="2">
         <v>20</v>
@@ -32011,13 +32008,13 @@
         <v>698</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>702</v>
@@ -32101,10 +32098,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32130,10 +32127,10 @@
         <v>180</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -32216,10 +32213,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32333,13 +32330,13 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B242" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C242" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="C242" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>20</v>
@@ -32361,13 +32358,13 @@
         <v>20</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M242" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -32450,13 +32447,13 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>20</v>
@@ -32478,13 +32475,13 @@
         <v>20</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M243" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -32567,13 +32564,13 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D244" t="s" s="2">
         <v>20</v>
@@ -32595,13 +32592,13 @@
         <v>20</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M244" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -32684,13 +32681,13 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>20</v>
@@ -32712,13 +32709,13 @@
         <v>20</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M245" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -32801,16 +32798,16 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
@@ -32829,13 +32826,13 @@
         <v>20</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M246" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -32918,13 +32915,13 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D247" t="s" s="2">
         <v>20</v>
@@ -32946,13 +32943,13 @@
         <v>20</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -33035,13 +33032,13 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>20</v>
@@ -33063,13 +33060,13 @@
         <v>20</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
@@ -33152,16 +33149,16 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D249" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
@@ -33180,13 +33177,13 @@
         <v>20</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M249" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -33269,10 +33266,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -33298,16 +33295,16 @@
         <v>108</v>
       </c>
       <c r="L250" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N250" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="M250" t="s" s="2">
+      <c r="O250" t="s" s="2">
         <v>763</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>20</v>
@@ -33317,7 +33314,7 @@
         <v>20</v>
       </c>
       <c r="S250" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>708</v>
@@ -33335,28 +33332,28 @@
         <v>195</v>
       </c>
       <c r="Y250" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF250" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="Z250" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="AA250" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB250" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC250" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD250" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE250" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF250" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>79</v>
@@ -33380,7 +33377,7 @@
         <v>20</v>
       </c>
       <c r="AN250" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AO250" t="s" s="2">
         <v>20</v>
@@ -33388,10 +33385,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -33417,13 +33414,13 @@
         <v>108</v>
       </c>
       <c r="L251" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="N251" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
@@ -33437,7 +33434,7 @@
         <v>20</v>
       </c>
       <c r="T251" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U251" t="s" s="2">
         <v>20</v>
@@ -33452,28 +33449,28 @@
         <v>195</v>
       </c>
       <c r="Y251" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF251" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>79</v>
@@ -33497,7 +33494,7 @@
         <v>20</v>
       </c>
       <c r="AN251" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AO251" t="s" s="2">
         <v>20</v>
@@ -33505,10 +33502,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -33534,13 +33531,13 @@
         <v>180</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>522</v>
@@ -33556,7 +33553,7 @@
         <v>20</v>
       </c>
       <c r="T252" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U252" t="s" s="2">
         <v>20</v>
@@ -33592,7 +33589,7 @@
         <v>20</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>79</v>
@@ -33616,7 +33613,7 @@
         <v>20</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AO252" t="s" s="2">
         <v>20</v>
@@ -33624,14 +33621,14 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" t="s" s="2">
@@ -33653,10 +33650,10 @@
         <v>180</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -33671,7 +33668,7 @@
         <v>20</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>20</v>
@@ -33707,7 +33704,7 @@
         <v>20</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>79</v>
@@ -33722,7 +33719,7 @@
         <v>100</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AL253" t="s" s="2">
         <v>20</v>
@@ -33731,7 +33728,7 @@
         <v>20</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AO253" t="s" s="2">
         <v>20</v>
@@ -33739,14 +33736,14 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
@@ -33768,10 +33765,10 @@
         <v>180</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -33786,7 +33783,7 @@
         <v>20</v>
       </c>
       <c r="T254" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U254" t="s" s="2">
         <v>20</v>
@@ -33822,7 +33819,7 @@
         <v>20</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>79</v>
@@ -33837,7 +33834,7 @@
         <v>100</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AL254" t="s" s="2">
         <v>20</v>
@@ -33846,7 +33843,7 @@
         <v>20</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AO254" t="s" s="2">
         <v>20</v>
@@ -33854,14 +33851,14 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" t="s" s="2">
@@ -33883,13 +33880,13 @@
         <v>180</v>
       </c>
       <c r="L255" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N255" t="s" s="2">
         <v>809</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
@@ -33903,7 +33900,7 @@
         <v>20</v>
       </c>
       <c r="T255" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U255" t="s" s="2">
         <v>20</v>
@@ -33939,7 +33936,7 @@
         <v>20</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>79</v>
@@ -33954,7 +33951,7 @@
         <v>100</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AL255" t="s" s="2">
         <v>20</v>
@@ -33963,7 +33960,7 @@
         <v>20</v>
       </c>
       <c r="AN255" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AO255" t="s" s="2">
         <v>20</v>
@@ -33971,14 +33968,14 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" t="s" s="2">
@@ -34000,10 +33997,10 @@
         <v>180</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -34054,7 +34051,7 @@
         <v>20</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>79</v>
@@ -34069,7 +34066,7 @@
         <v>100</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AL256" t="s" s="2">
         <v>20</v>
@@ -34078,7 +34075,7 @@
         <v>20</v>
       </c>
       <c r="AN256" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AO256" t="s" s="2">
         <v>20</v>
@@ -34086,14 +34083,14 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" t="s" s="2">
@@ -34115,10 +34112,10 @@
         <v>180</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -34133,7 +34130,7 @@
         <v>20</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>20</v>
@@ -34169,7 +34166,7 @@
         <v>20</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>79</v>
@@ -34184,7 +34181,7 @@
         <v>100</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AL257" t="s" s="2">
         <v>20</v>
@@ -34193,7 +34190,7 @@
         <v>20</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AO257" t="s" s="2">
         <v>20</v>
@@ -34201,10 +34198,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -34230,10 +34227,10 @@
         <v>180</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -34316,10 +34313,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -34345,10 +34342,10 @@
         <v>135</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -34429,13 +34426,13 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>20</v>
@@ -34457,13 +34454,13 @@
         <v>20</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -34546,10 +34543,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -34575,10 +34572,10 @@
         <v>180</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -34661,10 +34658,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -34776,10 +34773,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -34805,13 +34802,13 @@
         <v>102</v>
       </c>
       <c r="L263" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="M263" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N263" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>851</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
@@ -34819,7 +34816,7 @@
       </c>
       <c r="Q263" s="2"/>
       <c r="R263" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="S263" t="s" s="2">
         <v>20</v>
@@ -34861,7 +34858,7 @@
         <v>20</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>88</v>
@@ -34893,10 +34890,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -34922,13 +34919,13 @@
         <v>201</v>
       </c>
       <c r="L264" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M264" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N264" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="O264" s="2"/>
       <c r="P264" t="s" s="2">
@@ -34978,7 +34975,7 @@
         <v>20</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>79</v>
@@ -35010,10 +35007,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -35039,10 +35036,10 @@
         <v>180</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -35125,10 +35122,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -35157,10 +35154,10 @@
         <v>136</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
@@ -35242,10 +35239,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -35268,19 +35265,19 @@
         <v>20</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L267" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M267" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N267" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P267" t="s" s="2">
         <v>20</v>
@@ -35317,7 +35314,7 @@
         <v>20</v>
       </c>
       <c r="AB267" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AC267" s="2"/>
       <c r="AD267" t="s" s="2">
@@ -35342,7 +35339,7 @@
         <v>100</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL267" t="s" s="2">
         <v>20</v>
@@ -35351,7 +35348,7 @@
         <v>20</v>
       </c>
       <c r="AN267" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO267" t="s" s="2">
         <v>20</v>
@@ -35359,13 +35356,13 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>20</v>
@@ -35387,19 +35384,19 @@
         <v>20</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M268" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M268" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N268" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>20</v>
@@ -35427,10 +35424,10 @@
         <v>195</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AA268" t="s" s="2">
         <v>20</v>
@@ -35463,7 +35460,7 @@
         <v>100</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL268" t="s" s="2">
         <v>20</v>
@@ -35472,7 +35469,7 @@
         <v>20</v>
       </c>
       <c r="AN268" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO268" t="s" s="2">
         <v>20</v>
@@ -35480,10 +35477,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -35509,10 +35506,10 @@
         <v>180</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -35595,10 +35592,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -35624,13 +35621,13 @@
         <v>135</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
@@ -35712,10 +35709,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -35741,16 +35738,16 @@
         <v>102</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M271" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N271" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="O271" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O271" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>20</v>
@@ -35760,7 +35757,7 @@
         <v>20</v>
       </c>
       <c r="S271" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="T271" t="s" s="2">
         <v>20</v>
@@ -35831,10 +35828,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35860,13 +35857,13 @@
         <v>180</v>
       </c>
       <c r="L272" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M272" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N272" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M272" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O272" s="2"/>
       <c r="P272" t="s" s="2">
@@ -35948,10 +35945,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -35977,14 +35974,14 @@
         <v>108</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>20</v>
@@ -36065,10 +36062,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -36094,14 +36091,14 @@
         <v>180</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P274" t="s" s="2">
         <v>20</v>
@@ -36182,10 +36179,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -36211,16 +36208,16 @@
         <v>337</v>
       </c>
       <c r="L275" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M275" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N275" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M275" t="s" s="2">
+      <c r="O275" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>20</v>
@@ -36301,13 +36298,13 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>20</v>
@@ -36329,19 +36326,19 @@
         <v>20</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L276" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M276" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N276" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>20</v>
@@ -36369,10 +36366,10 @@
         <v>195</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z276" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AA276" t="s" s="2">
         <v>20</v>
@@ -36405,7 +36402,7 @@
         <v>100</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL276" t="s" s="2">
         <v>20</v>
@@ -36414,7 +36411,7 @@
         <v>20</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO276" t="s" s="2">
         <v>20</v>
@@ -36422,10 +36419,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -36451,10 +36448,10 @@
         <v>180</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -36537,10 +36534,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -36566,13 +36563,13 @@
         <v>135</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
@@ -36654,10 +36651,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -36683,16 +36680,16 @@
         <v>102</v>
       </c>
       <c r="L279" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M279" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N279" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M279" t="s" s="2">
+      <c r="O279" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P279" t="s" s="2">
         <v>20</v>
@@ -36702,7 +36699,7 @@
         <v>20</v>
       </c>
       <c r="S279" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="T279" t="s" s="2">
         <v>20</v>
@@ -36773,10 +36770,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -36802,13 +36799,13 @@
         <v>180</v>
       </c>
       <c r="L280" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N280" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M280" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
@@ -36890,10 +36887,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -36919,14 +36916,14 @@
         <v>108</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P281" t="s" s="2">
         <v>20</v>
@@ -37007,10 +37004,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -37036,14 +37033,14 @@
         <v>180</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P282" t="s" s="2">
         <v>20</v>
@@ -37124,10 +37121,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -37153,16 +37150,16 @@
         <v>337</v>
       </c>
       <c r="L283" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N283" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M283" t="s" s="2">
+      <c r="O283" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N283" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O283" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P283" t="s" s="2">
         <v>20</v>
@@ -37243,13 +37240,13 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D284" t="s" s="2">
         <v>20</v>
@@ -37271,19 +37268,19 @@
         <v>20</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="M284" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M284" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="N284" t="s" s="2">
         <v>276</v>
       </c>
       <c r="O284" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P284" t="s" s="2">
         <v>20</v>
@@ -37311,10 +37308,10 @@
         <v>195</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>20</v>
@@ -37347,7 +37344,7 @@
         <v>100</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AL284" t="s" s="2">
         <v>20</v>
@@ -37356,7 +37353,7 @@
         <v>20</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AO284" t="s" s="2">
         <v>20</v>
@@ -37364,10 +37361,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -37393,10 +37390,10 @@
         <v>180</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -37479,10 +37476,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -37508,13 +37505,13 @@
         <v>135</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
@@ -37596,10 +37593,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -37625,16 +37622,16 @@
         <v>102</v>
       </c>
       <c r="L287" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M287" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="N287" t="s" s="2">
         <v>885</v>
       </c>
-      <c r="M287" t="s" s="2">
+      <c r="O287" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O287" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>20</v>
@@ -37644,7 +37641,7 @@
         <v>20</v>
       </c>
       <c r="S287" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="T287" t="s" s="2">
         <v>20</v>
@@ -37715,10 +37712,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -37744,13 +37741,13 @@
         <v>180</v>
       </c>
       <c r="L288" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M288" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N288" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="O288" s="2"/>
       <c r="P288" t="s" s="2">
@@ -37832,10 +37829,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37861,14 +37858,14 @@
         <v>108</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="P289" t="s" s="2">
         <v>20</v>
@@ -37949,10 +37946,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -37978,14 +37975,14 @@
         <v>180</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>20</v>
@@ -38066,10 +38063,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -38095,16 +38092,16 @@
         <v>337</v>
       </c>
       <c r="L291" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M291" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="N291" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="M291" t="s" s="2">
+      <c r="O291" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="O291" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="P291" t="s" s="2">
         <v>20</v>
@@ -38185,10 +38182,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -38214,16 +38211,16 @@
         <v>180</v>
       </c>
       <c r="L292" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="M292" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="N292" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="M292" t="s" s="2">
+      <c r="O292" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="O292" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="P292" t="s" s="2">
         <v>20</v>
@@ -38304,10 +38301,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -38333,10 +38330,10 @@
         <v>180</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
@@ -38360,7 +38357,7 @@
         <v>20</v>
       </c>
       <c r="W293" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="X293" t="s" s="2">
         <v>20</v>
@@ -38419,10 +38416,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -38448,13 +38445,13 @@
         <v>180</v>
       </c>
       <c r="L294" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M294" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="N294" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="M294" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
@@ -38504,7 +38501,7 @@
         <v>20</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>79</v>
@@ -38519,7 +38516,7 @@
         <v>100</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AL294" t="s" s="2">
         <v>20</v>
@@ -38528,7 +38525,7 @@
         <v>20</v>
       </c>
       <c r="AN294" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AO294" t="s" s="2">
         <v>20</v>
@@ -38536,10 +38533,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -38565,14 +38562,14 @@
         <v>230</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="P295" t="s" s="2">
         <v>20</v>
@@ -38585,7 +38582,7 @@
         <v>20</v>
       </c>
       <c r="T295" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="U295" t="s" s="2">
         <v>20</v>
@@ -38621,7 +38618,7 @@
         <v>20</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>79</v>
@@ -38645,7 +38642,7 @@
         <v>20</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AO295" t="s" s="2">
         <v>20</v>
@@ -38653,10 +38650,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -38682,16 +38679,16 @@
         <v>201</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N296" t="s" s="2">
         <v>204</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="P296" t="s" s="2">
         <v>20</v>
@@ -38719,10 +38716,10 @@
         <v>206</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Z296" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AA296" t="s" s="2">
         <v>20</v>
@@ -38740,7 +38737,7 @@
         <v>20</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>79</v>
@@ -38772,10 +38769,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -38798,19 +38795,19 @@
         <v>20</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="M297" t="s" s="2">
+      <c r="O297" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="O297" t="s" s="2">
-        <v>1029</v>
       </c>
       <c r="P297" t="s" s="2">
         <v>20</v>
@@ -38859,7 +38856,7 @@
         <v>20</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>79</v>
@@ -38874,7 +38871,7 @@
         <v>100</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AL297" t="s" s="2">
         <v>184</v>
@@ -38883,7 +38880,7 @@
         <v>20</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AO297" t="s" s="2">
         <v>20</v>
@@ -38891,10 +38888,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -38917,19 +38914,19 @@
         <v>20</v>
       </c>
       <c r="K298" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="L298" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="M298" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="N298" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="L298" t="s" s="2">
+      <c r="O298" t="s" s="2">
         <v>1034</v>
-      </c>
-      <c r="M298" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>1036</v>
       </c>
       <c r="P298" t="s" s="2">
         <v>20</v>
@@ -38978,7 +38975,7 @@
         <v>20</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>79</v>
@@ -38993,7 +38990,7 @@
         <v>100</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AL298" t="s" s="2">
         <v>184</v>
@@ -39002,7 +38999,7 @@
         <v>20</v>
       </c>
       <c r="AN298" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AO298" t="s" s="2">
         <v>20</v>
@@ -39010,10 +39007,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -39036,19 +39033,19 @@
         <v>20</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L299" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="M299" t="s" s="2">
         <v>1040</v>
       </c>
-      <c r="L299" t="s" s="2">
+      <c r="N299" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="M299" t="s" s="2">
+      <c r="O299" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="O299" t="s" s="2">
-        <v>1044</v>
       </c>
       <c r="P299" t="s" s="2">
         <v>20</v>
@@ -39097,7 +39094,7 @@
         <v>20</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>79</v>
@@ -39109,10 +39106,10 @@
         <v>20</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AL299" t="s" s="2">
         <v>184</v>
@@ -39129,10 +39126,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -39244,10 +39241,10 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -39361,14 +39358,14 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E302" s="2"/>
       <c r="F302" t="s" s="2">
@@ -39390,10 +39387,10 @@
         <v>135</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N302" t="s" s="2">
         <v>166</v>
@@ -39448,7 +39445,7 @@
         <v>20</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>79</v>
@@ -39480,10 +39477,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -39509,16 +39506,16 @@
         <v>201</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N303" t="s" s="2">
         <v>204</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>20</v>
@@ -39549,7 +39546,7 @@
         <v>638</v>
       </c>
       <c r="Z303" t="s" s="2">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AA303" t="s" s="2">
         <v>20</v>
@@ -39567,7 +39564,7 @@
         <v>20</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>79</v>
@@ -39599,10 +39596,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -39628,14 +39625,14 @@
         <v>490</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>20</v>
@@ -39684,7 +39681,7 @@
         <v>20</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>79</v>
@@ -39708,7 +39705,7 @@
         <v>20</v>
       </c>
       <c r="AN304" t="s" s="2">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AO304" t="s" s="2">
         <v>20</v>
@@ -39716,10 +39713,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -39831,10 +39828,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -39948,10 +39945,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -40067,10 +40064,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -40096,13 +40093,13 @@
         <v>180</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>596</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>522</v>
@@ -40186,10 +40183,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -40215,7 +40212,7 @@
         <v>180</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M309" t="s" s="2">
         <v>532</v>
@@ -40303,10 +40300,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -40332,7 +40329,7 @@
         <v>180</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="M310" t="s" s="2">
         <v>542</v>
@@ -40420,10 +40417,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -40535,10 +40532,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -40650,10 +40647,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -40767,10 +40764,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -40796,16 +40793,16 @@
         <v>625</v>
       </c>
       <c r="L314" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="M314" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="N314" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="M314" t="s" s="2">
+      <c r="O314" t="s" s="2">
         <v>1079</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>1081</v>
       </c>
       <c r="P314" t="s" s="2">
         <v>20</v>
@@ -40854,7 +40851,7 @@
         <v>20</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>79</v>
@@ -40878,7 +40875,7 @@
         <v>20</v>
       </c>
       <c r="AN314" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AO314" t="s" s="2">
         <v>20</v>
@@ -40886,10 +40883,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -41001,10 +40998,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -41118,10 +41115,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -41233,10 +41230,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -41262,10 +41259,10 @@
         <v>180</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N318" t="s" s="2">
         <v>647</v>
@@ -41352,10 +41349,10 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -41471,10 +41468,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -41588,10 +41585,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -41703,10 +41700,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -41732,16 +41729,16 @@
         <v>698</v>
       </c>
       <c r="L322" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="O322" t="s" s="2">
         <v>1093</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="O322" t="s" s="2">
-        <v>1094</v>
       </c>
       <c r="P322" t="s" s="2">
         <v>20</v>
@@ -41790,7 +41787,7 @@
         <v>20</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AG322" t="s" s="2">
         <v>79</v>
@@ -41822,10 +41819,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -41854,11 +41851,11 @@
         <v>670</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="N323" s="2"/>
       <c r="O323" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P323" t="s" s="2">
         <v>20</v>
@@ -41886,7 +41883,7 @@
         <v>195</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Z323" t="s" s="2">
         <v>675</v>
@@ -41907,7 +41904,7 @@
         <v>20</v>
       </c>
       <c r="AF323" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AG323" t="s" s="2">
         <v>79</v>
@@ -41931,7 +41928,7 @@
         <v>20</v>
       </c>
       <c r="AN323" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AO323" t="s" s="2">
         <v>20</v>
@@ -41939,10 +41936,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -41965,17 +41962,17 @@
         <v>20</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>368</v>
+        <v>237</v>
       </c>
       <c r="L324" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>1101</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>1102</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>20</v>
@@ -42024,7 +42021,7 @@
         <v>20</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>79</v>
@@ -42033,13 +42030,13 @@
         <v>88</v>
       </c>
       <c r="AI324" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AJ324" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK324" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AL324" t="s" s="2">
         <v>184</v>
@@ -42048,7 +42045,7 @@
         <v>20</v>
       </c>
       <c r="AN324" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AO324" t="s" s="2">
         <v>20</v>
@@ -42056,10 +42053,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -42085,10 +42082,10 @@
         <v>230</v>
       </c>
       <c r="L325" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="M325" t="s" s="2">
         <v>1108</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>1109</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
@@ -42139,7 +42136,7 @@
         <v>20</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>79</v>
@@ -42154,7 +42151,7 @@
         <v>100</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AL325" t="s" s="2">
         <v>184</v>
@@ -42171,10 +42168,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -42197,19 +42194,19 @@
         <v>20</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L326" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="M326" t="s" s="2">
         <v>1112</v>
       </c>
-      <c r="M326" t="s" s="2">
+      <c r="N326" t="s" s="2">
         <v>1113</v>
       </c>
-      <c r="N326" t="s" s="2">
+      <c r="O326" t="s" s="2">
         <v>1114</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>1115</v>
       </c>
       <c r="P326" t="s" s="2">
         <v>20</v>
@@ -42258,7 +42255,7 @@
         <v>20</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>79</v>
@@ -42273,10 +42270,10 @@
         <v>100</v>
       </c>
       <c r="AK326" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="AL326" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="AL326" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="AM326" t="s" s="2">
         <v>20</v>
@@ -42290,10 +42287,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -42405,10 +42402,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -42522,14 +42519,14 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E329" s="2"/>
       <c r="F329" t="s" s="2">
@@ -42551,10 +42548,10 @@
         <v>135</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N329" t="s" s="2">
         <v>166</v>
@@ -42609,7 +42606,7 @@
         <v>20</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>79</v>
@@ -42641,10 +42638,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -42670,16 +42667,16 @@
         <v>201</v>
       </c>
       <c r="L330" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="M330" t="s" s="2">
         <v>1122</v>
       </c>
-      <c r="M330" t="s" s="2">
+      <c r="N330" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="N330" t="s" s="2">
+      <c r="O330" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="O330" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="P330" t="s" s="2">
         <v>20</v>
@@ -42728,7 +42725,7 @@
         <v>20</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AG330" t="s" s="2">
         <v>88</v>
@@ -42760,10 +42757,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -42789,16 +42786,16 @@
         <v>337</v>
       </c>
       <c r="L331" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="M331" t="s" s="2">
         <v>1127</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>1128</v>
       </c>
-      <c r="N331" t="s" s="2">
+      <c r="O331" t="s" s="2">
         <v>1129</v>
-      </c>
-      <c r="O331" t="s" s="2">
-        <v>1130</v>
       </c>
       <c r="P331" t="s" s="2">
         <v>20</v>
@@ -42847,7 +42844,7 @@
         <v>20</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>79</v>
@@ -42862,16 +42859,16 @@
         <v>100</v>
       </c>
       <c r="AK331" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="AL331" t="s" s="2">
         <v>1131</v>
       </c>
-      <c r="AL331" t="s" s="2">
+      <c r="AM331" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN331" t="s" s="2">
         <v>1132</v>
-      </c>
-      <c r="AM331" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN331" t="s" s="2">
-        <v>1133</v>
       </c>
       <c r="AO331" t="s" s="2">
         <v>20</v>
@@ -42879,14 +42876,14 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" t="s" s="2">
@@ -42905,16 +42902,16 @@
         <v>20</v>
       </c>
       <c r="K332" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="L332" t="s" s="2">
         <v>1136</v>
       </c>
-      <c r="L332" t="s" s="2">
+      <c r="M332" t="s" s="2">
         <v>1137</v>
       </c>
-      <c r="M332" t="s" s="2">
+      <c r="N332" t="s" s="2">
         <v>1138</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>1139</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" t="s" s="2">
@@ -42964,7 +42961,7 @@
         <v>20</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AG332" t="s" s="2">
         <v>79</v>
@@ -42979,7 +42976,7 @@
         <v>100</v>
       </c>
       <c r="AK332" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AL332" t="s" s="2">
         <v>184</v>
@@ -42988,7 +42985,7 @@
         <v>20</v>
       </c>
       <c r="AN332" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AO332" t="s" s="2">
         <v>20</v>
@@ -42996,10 +42993,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -43022,19 +43019,19 @@
         <v>89</v>
       </c>
       <c r="K333" t="s" s="2">
+        <v>1142</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>1143</v>
       </c>
-      <c r="L333" t="s" s="2">
+      <c r="M333" t="s" s="2">
         <v>1144</v>
       </c>
-      <c r="M333" t="s" s="2">
+      <c r="N333" t="s" s="2">
         <v>1145</v>
       </c>
-      <c r="N333" t="s" s="2">
+      <c r="O333" t="s" s="2">
         <v>1146</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>1147</v>
       </c>
       <c r="P333" t="s" s="2">
         <v>20</v>
@@ -43083,7 +43080,7 @@
         <v>20</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>79</v>
@@ -43098,10 +43095,10 @@
         <v>100</v>
       </c>
       <c r="AK333" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AL333" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AM333" t="s" s="2">
         <v>20</v>
@@ -43115,10 +43112,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -43230,10 +43227,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -43347,10 +43344,10 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -43376,13 +43373,13 @@
         <v>180</v>
       </c>
       <c r="L336" t="s" s="2">
+        <v>1151</v>
+      </c>
+      <c r="M336" t="s" s="2">
         <v>1152</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>1153</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>1154</v>
       </c>
       <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
@@ -43432,16 +43429,16 @@
         <v>20</v>
       </c>
       <c r="AF336" t="s" s="2">
+        <v>1154</v>
+      </c>
+      <c r="AG336" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH336" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI336" t="s" s="2">
         <v>1155</v>
-      </c>
-      <c r="AG336" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH336" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI336" t="s" s="2">
-        <v>1156</v>
       </c>
       <c r="AJ336" t="s" s="2">
         <v>100</v>
@@ -43464,10 +43461,10 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -43493,13 +43490,13 @@
         <v>102</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>1157</v>
+      </c>
+      <c r="M337" t="s" s="2">
         <v>1158</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>1159</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>1160</v>
       </c>
       <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
@@ -43528,28 +43525,28 @@
         <v>206</v>
       </c>
       <c r="Y337" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="Z337" t="s" s="2">
         <v>1161</v>
       </c>
-      <c r="Z337" t="s" s="2">
+      <c r="AA337" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB337" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC337" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD337" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE337" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF337" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="AA337" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB337" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC337" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD337" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE337" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF337" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>79</v>
@@ -43581,10 +43578,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -43610,13 +43607,13 @@
         <v>170</v>
       </c>
       <c r="L338" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="M338" t="s" s="2">
         <v>1165</v>
       </c>
-      <c r="M338" t="s" s="2">
+      <c r="N338" t="s" s="2">
         <v>1166</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>1167</v>
       </c>
       <c r="O338" s="2"/>
       <c r="P338" t="s" s="2">
@@ -43666,7 +43663,7 @@
         <v>20</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>79</v>
@@ -43681,7 +43678,7 @@
         <v>100</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AL338" t="s" s="2">
         <v>20</v>
@@ -43698,10 +43695,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -43727,13 +43724,13 @@
         <v>180</v>
       </c>
       <c r="L339" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="M339" t="s" s="2">
         <v>1171</v>
       </c>
-      <c r="M339" t="s" s="2">
+      <c r="N339" t="s" s="2">
         <v>1172</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>1173</v>
       </c>
       <c r="O339" s="2"/>
       <c r="P339" t="s" s="2">
@@ -43783,7 +43780,7 @@
         <v>20</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>79</v>
@@ -43815,10 +43812,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -43841,19 +43838,19 @@
         <v>89</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L340" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="M340" t="s" s="2">
         <v>1176</v>
       </c>
-      <c r="M340" t="s" s="2">
+      <c r="N340" t="s" s="2">
         <v>1177</v>
       </c>
-      <c r="N340" t="s" s="2">
+      <c r="O340" t="s" s="2">
         <v>1178</v>
-      </c>
-      <c r="O340" t="s" s="2">
-        <v>1179</v>
       </c>
       <c r="P340" t="s" s="2">
         <v>20</v>
@@ -43902,7 +43899,7 @@
         <v>20</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AG340" t="s" s="2">
         <v>79</v>
@@ -43917,7 +43914,7 @@
         <v>100</v>
       </c>
       <c r="AK340" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AL340" t="s" s="2">
         <v>184</v>
@@ -43934,10 +43931,10 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -44049,10 +44046,10 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -44166,14 +44163,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -44195,10 +44192,10 @@
         <v>135</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="N343" t="s" s="2">
         <v>166</v>
@@ -44253,7 +44250,7 @@
         <v>20</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>79</v>
@@ -44285,10 +44282,10 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -44311,16 +44308,16 @@
         <v>89</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>1185</v>
       </c>
-      <c r="L344" t="s" s="2">
+      <c r="M344" t="s" s="2">
         <v>1186</v>
       </c>
-      <c r="M344" t="s" s="2">
+      <c r="N344" t="s" s="2">
         <v>1187</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>1188</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
@@ -44370,7 +44367,7 @@
         <v>20</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>88</v>
@@ -44394,7 +44391,7 @@
         <v>20</v>
       </c>
       <c r="AN344" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AO344" t="s" s="2">
         <v>20</v>
@@ -44402,10 +44399,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -44431,10 +44428,10 @@
         <v>108</v>
       </c>
       <c r="L345" t="s" s="2">
+        <v>1190</v>
+      </c>
+      <c r="M345" t="s" s="2">
         <v>1191</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>1192</v>
       </c>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
@@ -44464,11 +44461,11 @@
         <v>195</v>
       </c>
       <c r="Y345" t="s" s="2">
+        <v>1192</v>
+      </c>
+      <c r="Z345" t="s" s="2">
         <v>1193</v>
       </c>
-      <c r="Z345" t="s" s="2">
-        <v>1194</v>
-      </c>
       <c r="AA345" t="s" s="2">
         <v>20</v>
       </c>
@@ -44485,7 +44482,7 @@
         <v>20</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>88</v>
@@ -44500,7 +44497,7 @@
         <v>100</v>
       </c>
       <c r="AK345" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AL345" t="s" s="2">
         <v>184</v>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -4029,17 +4029,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="80.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.03125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="209.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="198.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4048,27 +4048,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.9375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.44921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.1640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCPatientCMS.xlsx
+++ b/docs/StructureDefinition-LTCPatientCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
